--- a/Goryachaya_trubka.xlsx
+++ b/Goryachaya_trubka.xlsx
@@ -466,11 +466,25 @@
             <c:v>Теор</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:glow>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:outerShdw>
+              <a:softEdge rad="0"/>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -484,7 +498,19 @@
                   <a:schemeClr val="accent5"/>
                 </a:solidFill>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:glow>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="0"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -2362,16 +2388,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>50006</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>173831</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>88106</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>21431</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2937,8 +2963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Goryachaya_trubka.xlsx
+++ b/Goryachaya_trubka.xlsx
@@ -176,12 +176,52 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0.1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Лист1!$A$5:$A$46</c:f>
@@ -488,7 +528,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
@@ -2388,10 +2428,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
